--- a/biology/Biologie cellulaire et moléculaire/Kératine_3/Kératine_3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Kératine_3/Kératine_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratine_3</t>
+          <t>Kératine_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Kératine 3 aussi appelée cytokératine 3 est une protéine, qui, chez l'humain est encodé par le gène KRT3. 
 C'est une cytokératine de type II. Elle est située exclusivement sur le tissu épithélial de la cornée tout comme la kératine 12.
